--- a/biology/Médecine/Trochlée_du_muscle_oblique_supérieur/Trochlée_du_muscle_oblique_supérieur.xlsx
+++ b/biology/Médecine/Trochlée_du_muscle_oblique_supérieur/Trochlée_du_muscle_oblique_supérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trochl%C3%A9e_du_muscle_oblique_sup%C3%A9rieur</t>
+          <t>Trochlée_du_muscle_oblique_supérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La trochlée du muscle oblique supérieur est une structure en forme de poulie situé dans l'orbite.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trochl%C3%A9e_du_muscle_oblique_sup%C3%A9rieur</t>
+          <t>Trochlée_du_muscle_oblique_supérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La trochlée du muscle oblique supérieur est normalement la seule structure cartilagineuse située dans l'orbite. Elle s'insère au niveau de la fosse trochléaire ou sur l'épine trochléaire le cas échéant. Dans cette structure passe le tendon du muscle oblique supérieur.
 </t>
